--- a/upload_files/dba_senior__dba_mid_jl.xlsx
+++ b/upload_files/dba_senior__dba_mid_jl.xlsx
@@ -55,7 +55,7 @@
     <t>dba_mid_jl.pdf</t>
   </si>
   <si>
-    <t>0.348</t>
+    <t>81.89</t>
   </si>
   <si>
     <t>image processing : 1</t>
@@ -664,61 +664,61 @@
     <t>pl/sql : 2</t>
   </si>
   <si>
+    <t>analysis : 1</t>
+  </si>
+  <si>
+    <t>linux : 2</t>
+  </si>
+  <si>
+    <t>reporting : 1</t>
+  </si>
+  <si>
+    <t>tuning : 1</t>
+  </si>
+  <si>
+    <t>database : 2</t>
+  </si>
+  <si>
+    <t>warehouse : 1</t>
+  </si>
+  <si>
+    <t>manager : 1</t>
+  </si>
+  <si>
+    <t>performance tuning : 1</t>
+  </si>
+  <si>
+    <t>scripting : 1</t>
+  </si>
+  <si>
+    <t>rman : 2</t>
+  </si>
+  <si>
+    <t>documentation : 1</t>
+  </si>
+  <si>
     <t>sql : 3</t>
   </si>
   <si>
+    <t>pl : 1</t>
+  </si>
+  <si>
+    <t>patching : 1</t>
+  </si>
+  <si>
+    <t>design : 2</t>
+  </si>
+  <si>
     <t>asm : 1</t>
   </si>
   <si>
-    <t>performance tuning : 1</t>
-  </si>
-  <si>
-    <t>tuning : 1</t>
-  </si>
-  <si>
-    <t>documentation : 1</t>
-  </si>
-  <si>
-    <t>design : 2</t>
-  </si>
-  <si>
-    <t>warehouse : 1</t>
-  </si>
-  <si>
     <t>oracle : 3</t>
   </si>
   <si>
-    <t>reporting : 1</t>
-  </si>
-  <si>
-    <t>scripting : 1</t>
-  </si>
-  <si>
-    <t>analysis : 1</t>
-  </si>
-  <si>
-    <t>patching : 1</t>
-  </si>
-  <si>
-    <t>rman : 2</t>
-  </si>
-  <si>
-    <t>manager : 1</t>
-  </si>
-  <si>
     <t>dba : 1</t>
   </si>
   <si>
-    <t>linux : 2</t>
-  </si>
-  <si>
-    <t>database : 2</t>
-  </si>
-  <si>
-    <t>pl : 1</t>
-  </si>
-  <si>
-    <t>0.351</t>
+    <t>82.60</t>
   </si>
   <si>
     <t>0.0</t>
@@ -1130,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>234</v>
@@ -1147,7 +1147,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1155,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1163,7 +1163,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1171,7 +1171,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1179,7 +1179,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1187,7 +1187,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1195,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1211,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1219,7 +1219,7 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1227,7 +1227,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:11">
